--- a/data_sample.xlsx
+++ b/data_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\clinical_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA340CE-49EC-47C1-BC0C-74C7C9C7F813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1B1E2-05A0-4DF7-8CB3-AA46F2E876E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2430" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>New confusion</t>
   </si>
   <si>
-    <t>S.aureus in blood culture</t>
-  </si>
-  <si>
     <t>Stool negative</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Fall on ward</t>
+  </si>
+  <si>
+    <t>S.aureus in blood</t>
   </si>
 </sst>
 </file>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,12 +208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +527,7 @@
   <dimension ref="A1:AMB63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +709,7 @@
         <v>44770</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
         <v>44718</v>
@@ -743,16 +737,16 @@
       <c r="F5" s="4">
         <v>44717</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="2">
         <v>44782</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="2">
         <v>44787</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -784,20 +778,20 @@
       <c r="F6" s="4">
         <v>44718</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="2">
         <v>44787</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="2">
         <v>44789</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>44719</v>
@@ -826,7 +820,7 @@
         <v>44719</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2">
         <v>44725</v>
@@ -973,7 +967,7 @@
         <v>44724</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2">
         <v>44766</v>
@@ -1031,7 +1025,7 @@
         <v>44726</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="2">
         <v>44773</v>
@@ -1086,7 +1080,7 @@
         <v>44728</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="2">
         <v>44776</v>
@@ -1190,7 +1184,7 @@
         <v>44732</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" s="2">
         <v>44799</v>
